--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -180,25 +167,44 @@
   </si>
   <si>
     <t>Hot/AboutForm</t>
+  </si>
+  <si>
+    <t>LoginForm</t>
+  </si>
+  <si>
+    <t>Hot/LoginForm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -345,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +360,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,12 +551,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,145 +690,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,26 +1179,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.87272727272727" style="2"/>
+    <col min="2" max="2" width="19.3727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.1272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.87272727272727" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,26 +1250,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1250,140 +1277,140 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>801</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="b">
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>802</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="b">
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>803</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="b">
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>901</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="b">
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>902</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="b">
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>903</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="b">
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1391,7 +1418,7 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1414,7 +1441,7 @@
       <c r="B11" s="3">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1437,7 +1464,7 @@
       <c r="B12" s="3">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1460,7 +1487,7 @@
       <c r="B13" s="3">
         <v>102</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1476,6 +1503,26 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Hot/LoginForm</t>
+  </si>
+  <si>
+    <t>RoomForm</t>
+  </si>
+  <si>
+    <t>Hot/RoomForm</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1526,6 +1532,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -79,112 +92,25 @@
     <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
-    <t>UIHelp</t>
-  </si>
-  <si>
-    <t>帮助界面</t>
-  </si>
-  <si>
-    <t>Demo/UIHelp</t>
+    <t>JoinRoomForm</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>RoomForm</t>
+  </si>
+  <si>
+    <t>LoadingForm</t>
   </si>
   <si>
     <t>Pop</t>
-  </si>
-  <si>
-    <t>UILobby</t>
-  </si>
-  <si>
-    <t>大厅面</t>
-  </si>
-  <si>
-    <t>Demo/UILobby</t>
-  </si>
-  <si>
-    <t>UILogin</t>
-  </si>
-  <si>
-    <t>登录界面</t>
-  </si>
-  <si>
-    <t>Demo/UILogin</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>UILSLogin</t>
-  </si>
-  <si>
-    <t>LockStep/UILSLogin</t>
-  </si>
-  <si>
-    <t>UILSLobby</t>
-  </si>
-  <si>
-    <t>LockStep/UILSLobby</t>
-  </si>
-  <si>
-    <t>UILSRoom</t>
-  </si>
-  <si>
-    <t>房间界面</t>
-  </si>
-  <si>
-    <t>LockStep/UILSRoom</t>
-  </si>
-  <si>
-    <t>DialogForm</t>
-  </si>
-  <si>
-    <t>弹出框</t>
-  </si>
-  <si>
-    <t>Hot/DialogForm</t>
-  </si>
-  <si>
-    <t>MenuForm</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>Hot/MenuForm</t>
-  </si>
-  <si>
-    <t>SettingForm</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Hot/SettingForm</t>
-  </si>
-  <si>
-    <t>AboutForm</t>
-  </si>
-  <si>
-    <t>关于</t>
-  </si>
-  <si>
-    <t>Hot/AboutForm</t>
-  </si>
-  <si>
-    <t>LoginForm</t>
-  </si>
-  <si>
-    <t>Hot/LoginForm</t>
-  </si>
-  <si>
-    <t>RoomForm</t>
-  </si>
-  <si>
-    <t>Hot/RoomForm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1185,13 +1111,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.87272727272727" style="2"/>
     <col min="2" max="2" width="19.3727272727273" style="2" customWidth="1"/>
@@ -1284,271 +1210,61 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="2">
-        <v>801</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="2">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="b">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2">
-        <v>803</v>
+        <v>3001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="b">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="2">
-        <v>901</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2">
-        <v>902</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2">
-        <v>903</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="3">
-        <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="3">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="b">
+      <c r="H6" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>RoomForm</t>
+  </si>
+  <si>
+    <t>SelectHeroForm</t>
   </si>
   <si>
     <t>LoadingForm</t>
@@ -1111,13 +1114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.87272727272727" style="2"/>
     <col min="2" max="2" width="19.3727272727273" style="2" customWidth="1"/>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2">
-        <v>3001</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1258,13 +1261,33 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -92,94 +92,22 @@
     <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
-    <t>UIHelp</t>
-  </si>
-  <si>
-    <t>帮助界面</t>
-  </si>
-  <si>
-    <t>Demo/UIHelp</t>
+    <t>JoinRoomForm</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>RoomForm</t>
+  </si>
+  <si>
+    <t>SelectHeroForm</t>
+  </si>
+  <si>
+    <t>LoadingForm</t>
   </si>
   <si>
     <t>Pop</t>
-  </si>
-  <si>
-    <t>UILobby</t>
-  </si>
-  <si>
-    <t>大厅面</t>
-  </si>
-  <si>
-    <t>Demo/UILobby</t>
-  </si>
-  <si>
-    <t>UILogin</t>
-  </si>
-  <si>
-    <t>登录界面</t>
-  </si>
-  <si>
-    <t>Demo/UILogin</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>UILSLogin</t>
-  </si>
-  <si>
-    <t>LockStep/UILSLogin</t>
-  </si>
-  <si>
-    <t>UILSLobby</t>
-  </si>
-  <si>
-    <t>LockStep/UILSLobby</t>
-  </si>
-  <si>
-    <t>UILSRoom</t>
-  </si>
-  <si>
-    <t>房间界面</t>
-  </si>
-  <si>
-    <t>LockStep/UILSRoom</t>
-  </si>
-  <si>
-    <t>DialogForm</t>
-  </si>
-  <si>
-    <t>弹出框</t>
-  </si>
-  <si>
-    <t>Hot/DialogForm</t>
-  </si>
-  <si>
-    <t>MenuForm</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>Hot/MenuForm</t>
-  </si>
-  <si>
-    <t>SettingForm</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Hot/SettingForm</t>
-  </si>
-  <si>
-    <t>AboutForm</t>
-  </si>
-  <si>
-    <t>关于</t>
-  </si>
-  <si>
-    <t>Hot/AboutForm</t>
   </si>
 </sst>
 </file>
@@ -192,13 +120,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -345,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +295,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,12 +486,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,145 +625,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,26 +1114,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.87272727272727" style="2"/>
+    <col min="2" max="2" width="19.3727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.1272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.87272727272727" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,26 +1185,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1250,232 +1212,82 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1">
-        <v>801</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="b">
+      <c r="G4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="1">
-        <v>802</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="b">
+      <c r="B5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="1">
-        <v>803</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="b">
+      <c r="B6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1">
-        <v>901</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="b">
+      <c r="B7" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1">
-        <v>902</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1">
-        <v>903</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="3">
-        <v>101</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="3">
-        <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="b">
+      <c r="H7" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -101,7 +101,10 @@
     <t>RoomForm</t>
   </si>
   <si>
-    <t>SelectHeroForm</t>
+    <t>ChooseHeroForm</t>
+  </si>
+  <si>
+    <t>BattleForm</t>
   </si>
   <si>
     <t>LoadingForm</t>
@@ -1114,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.87272727272727" style="2"/>
     <col min="2" max="2" width="19.3727272727273" style="2" customWidth="1"/>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2">
-        <v>3001</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -1281,13 +1284,33 @@
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
